--- a/irCalibration.xlsx
+++ b/irCalibration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Voltage</t>
   </si>
@@ -34,16 +34,13 @@
     <t>Distance</t>
   </si>
   <si>
-    <t xml:space="preserve">IR Sensor: </t>
+    <t>2D120X</t>
   </si>
   <si>
-    <t>Green signal wire</t>
+    <t>Dark green signal wire</t>
   </si>
   <si>
-    <t>Long Vcc</t>
-  </si>
-  <si>
-    <t>"double" wires</t>
+    <t>Light green 2Y0A21</t>
   </si>
 </sst>
 </file>
@@ -187,7 +184,43 @@
             </c:spPr>
             <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5931758530183728E-2"/>
+                  <c:y val="-0.12493474773986585"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -295,11 +328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="360631496"/>
-        <c:axId val="360628360"/>
+        <c:axId val="195400920"/>
+        <c:axId val="195862360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="360631496"/>
+        <c:axId val="195400920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,12 +389,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360628360"/>
+        <c:crossAx val="195862360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="360628360"/>
+        <c:axId val="195862360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -418,7 +451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360631496"/>
+        <c:crossAx val="195400920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -555,7 +588,43 @@
             </c:spPr>
             <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.2120078740157482E-2"/>
+                  <c:y val="-0.11577500729075532"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -663,11 +732,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="365053912"/>
-        <c:axId val="365057440"/>
+        <c:axId val="195865888"/>
+        <c:axId val="195867456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="365053912"/>
+        <c:axId val="195865888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,12 +793,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365057440"/>
+        <c:crossAx val="195867456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="365057440"/>
+        <c:axId val="195867456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365053912"/>
+        <c:crossAx val="195865888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -923,7 +992,43 @@
             </c:spPr>
             <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11487248468941383"/>
+                  <c:y val="-7.9454651501895592E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1031,11 +1136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="365052736"/>
-        <c:axId val="365052344"/>
+        <c:axId val="195865104"/>
+        <c:axId val="195860792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="365052736"/>
+        <c:axId val="195865104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,12 +1197,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365052344"/>
+        <c:crossAx val="195860792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="365052344"/>
+        <c:axId val="195860792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365052736"/>
+        <c:crossAx val="195865104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3241,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,9 +3394,6 @@
       <c r="B5" s="1">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
@@ -3396,10 +3498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3516,9 +3618,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>4</v>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3529,7 +3631,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -3649,9 +3751,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>5</v>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/irCalibration.xlsx
+++ b/irCalibration.xlsx
@@ -13,8 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Voltage</t>
   </si>
@@ -34,13 +32,7 @@
     <t>Distance</t>
   </si>
   <si>
-    <t>2D120X</t>
-  </si>
-  <si>
-    <t>Dark green signal wire</t>
-  </si>
-  <si>
-    <t>Light green 2Y0A21</t>
+    <t>voltage</t>
   </si>
 </sst>
 </file>
@@ -76,9 +68,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,6 +102,474 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Left</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0002187226596672E-3"/>
+                  <c:y val="-8.2992855059784196E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="417820360"/>
+        <c:axId val="417822712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="417820360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417822712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="417822712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417820360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Middle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -188,8 +647,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.5931758530183728E-2"/>
-                  <c:y val="-0.12493474773986585"/>
+                  <c:x val="3.4555774278215226E-2"/>
+                  <c:y val="-7.2458442694663172E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -224,96 +683,108 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>Sheet1!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3.1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.06</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.79</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.57</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.37</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.86</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.73</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.63</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.26</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.01</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>2.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>1.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>0.60499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,11 +799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195400920"/>
-        <c:axId val="195862360"/>
+        <c:axId val="512350256"/>
+        <c:axId val="512347120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195400920"/>
+        <c:axId val="512350256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +860,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195862360"/>
+        <c:crossAx val="512347120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195862360"/>
+        <c:axId val="512347120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195400920"/>
+        <c:crossAx val="512350256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -500,7 +971,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -515,6 +986,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Right</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -592,8 +1088,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.2120078740157482E-2"/>
-                  <c:y val="-0.11577500729075532"/>
+                  <c:x val="1.7889107611548556E-2"/>
+                  <c:y val="-5.5105715952172729E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -628,96 +1124,108 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$14</c:f>
+              <c:f>Sheet1!$H$2:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.91</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.66</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.45</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.32</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.19</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.07</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.44</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.37</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>0.61499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>0.56499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,11 +1240,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195865888"/>
-        <c:axId val="195867456"/>
+        <c:axId val="512345160"/>
+        <c:axId val="512353392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195865888"/>
+        <c:axId val="512345160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,12 +1301,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195867456"/>
+        <c:crossAx val="512353392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195867456"/>
+        <c:axId val="512353392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,411 +1363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195865888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.11487248468941383"/>
-                  <c:y val="-7.9454651501895592E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.71</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.69</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.89</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="195865104"/>
-        <c:axId val="195860792"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="195865104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="195860792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="195860792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="195865104"/>
+        <c:crossAx val="512345160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2980,16 +3084,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3008,27 +3112,22 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3037,33 +3136,28 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>538162</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3072,7 +3166,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3344,416 +3438,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3.1</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.06</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2.79</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2.57</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2.37</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="B7" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="B9" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1.73</v>
-      </c>
-      <c r="B10" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1.63</v>
-      </c>
-      <c r="B11" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1.26</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="B13" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="B14" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.91</v>
-      </c>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2.13</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>2.12</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>6</v>
       </c>
+      <c r="C4">
+        <v>1.81</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1.84</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>1.76</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.66</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>7</v>
       </c>
+      <c r="C5">
+        <v>1.61</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>1.62</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>1.53</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.45</v>
-      </c>
-      <c r="B4">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>8</v>
       </c>
+      <c r="C6">
+        <v>1.36</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1.38</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>1.36</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.32</v>
-      </c>
-      <c r="B5">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>9</v>
       </c>
+      <c r="C7">
+        <v>1.19</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>1.24</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.19</v>
-      </c>
-      <c r="B6">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1.07</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.07</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>0.89</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>0.94</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.93</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.87</v>
-      </c>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>14</v>
       </c>
+      <c r="C10">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>0.82</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.8</v>
-      </c>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>0.72</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>0.69</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.57999999999999996</v>
-      </c>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0.626</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="H12">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>20</v>
       </c>
+      <c r="C13">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>0.56499999999999995</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.44</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>25</v>
       </c>
+      <c r="C14">
+        <v>0.443</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>0.41</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.37</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>30</v>
       </c>
+      <c r="C15">
+        <v>0.375</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>0.33</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3.14</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.02</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.71</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.46</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2.25</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2.08</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.93</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.8</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.69</v>
-      </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.57</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.25</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.05</v>
-      </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.89</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>4</v>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>0.31</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>0.27</v>
+      </c>
+      <c r="H16">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>0.27500000000000002</v>
       </c>
     </row>
   </sheetData>
